--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538106\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538106\Desktop\gdp_group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65AF32AE-26BA-43E9-9869-56D9BE48A4FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD1C956-D23F-4E45-9541-5C3F67AAB5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88A58A50-0774-432A-BED6-CB8C7EB894D5}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -296,31 +296,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,18 +1414,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1455,16 +1455,16 @@
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="16"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1479,15 +1479,15 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="20" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>44066</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>44067</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1528,30 +1528,30 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>44067</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1559,24 +1559,24 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>44068</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>44089</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1584,32 +1584,32 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>44090</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>44119</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1.5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>0.5</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1617,24 +1617,24 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>44120</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>44139</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>4.5</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
         <v>4.5</v>
       </c>
     </row>
@@ -1642,24 +1642,24 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>44140</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1667,34 +1667,34 @@
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>43850</v>
       </c>
-      <c r="C14" s="8">
-        <v>43920</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="7">
+        <v>43918</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1.5</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1.5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>1.5</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>10.5</v>
       </c>
     </row>
@@ -1702,32 +1702,32 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>43850</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>43866</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1.5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>1.5</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1735,24 +1735,24 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>43867</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>43889</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1760,26 +1760,26 @@
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>43891</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>43920</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>4.5</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>0.5</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1787,32 +1787,32 @@
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>43924</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>43938</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>1.5</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>2</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>6.5</v>
       </c>
     </row>
@@ -1820,437 +1820,437 @@
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>43939</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>43952</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>5</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>SUM(E9:E18)</f>
         <v>11.5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" ref="F21:K21" si="0">SUM(F9:F18)</f>
         <v>12</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538106\Desktop\gdp_group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD1C956-D23F-4E45-9541-5C3F67AAB5BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C5704-FECF-4C86-8483-AE24EF2E829B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88A58A50-0774-432A-BED6-CB8C7EB894D5}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1671,7 +1671,7 @@
         <v>43850</v>
       </c>
       <c r="C14" s="7">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>

--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538106\Desktop\gdp_group4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538102\Desktop\Project\gdp_group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C5704-FECF-4C86-8483-AE24EF2E829B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88A58A50-0774-432A-BED6-CB8C7EB894D5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -634,786 +633,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBBE371-DD8E-496E-AF96-24DEA190B44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="256" width="8.7265625" style="3"/>
-    <col min="257" max="257" width="47.81640625" style="3" customWidth="1"/>
-    <col min="258" max="258" width="19.1796875" style="3" customWidth="1"/>
-    <col min="259" max="259" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.7265625" style="3"/>
-    <col min="261" max="261" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.7265625" style="3"/>
-    <col min="264" max="264" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.453125" style="3" customWidth="1"/>
-    <col min="267" max="267" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="268" max="512" width="8.7265625" style="3"/>
-    <col min="513" max="513" width="47.81640625" style="3" customWidth="1"/>
-    <col min="514" max="514" width="19.1796875" style="3" customWidth="1"/>
-    <col min="515" max="515" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="8.7265625" style="3"/>
-    <col min="517" max="517" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.7265625" style="3"/>
-    <col min="520" max="520" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.453125" style="3" customWidth="1"/>
-    <col min="523" max="523" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="524" max="768" width="8.7265625" style="3"/>
-    <col min="769" max="769" width="47.81640625" style="3" customWidth="1"/>
-    <col min="770" max="770" width="19.1796875" style="3" customWidth="1"/>
-    <col min="771" max="771" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="8.7265625" style="3"/>
-    <col min="773" max="773" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.7265625" style="3"/>
-    <col min="776" max="776" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.453125" style="3" customWidth="1"/>
-    <col min="779" max="779" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="780" max="1024" width="8.7265625" style="3"/>
-    <col min="1025" max="1025" width="47.81640625" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="19.1796875" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="8.7265625" style="3"/>
-    <col min="1029" max="1029" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.7265625" style="3"/>
-    <col min="1032" max="1032" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.453125" style="3" customWidth="1"/>
-    <col min="1035" max="1035" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1280" width="8.7265625" style="3"/>
-    <col min="1281" max="1281" width="47.81640625" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="19.1796875" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="8.7265625" style="3"/>
-    <col min="1285" max="1285" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.7265625" style="3"/>
-    <col min="1288" max="1288" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.453125" style="3" customWidth="1"/>
-    <col min="1291" max="1291" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1536" width="8.7265625" style="3"/>
-    <col min="1537" max="1537" width="47.81640625" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="19.1796875" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="8.7265625" style="3"/>
-    <col min="1541" max="1541" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.7265625" style="3"/>
-    <col min="1544" max="1544" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.453125" style="3" customWidth="1"/>
-    <col min="1547" max="1547" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1792" width="8.7265625" style="3"/>
-    <col min="1793" max="1793" width="47.81640625" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="19.1796875" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="8.7265625" style="3"/>
-    <col min="1797" max="1797" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.7265625" style="3"/>
-    <col min="1800" max="1800" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.453125" style="3" customWidth="1"/>
-    <col min="1803" max="1803" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="1804" max="2048" width="8.7265625" style="3"/>
-    <col min="2049" max="2049" width="47.81640625" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="8.7265625" style="3"/>
-    <col min="2053" max="2053" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.7265625" style="3"/>
-    <col min="2056" max="2056" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.453125" style="3" customWidth="1"/>
-    <col min="2059" max="2059" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2304" width="8.7265625" style="3"/>
-    <col min="2305" max="2305" width="47.81640625" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="8.7265625" style="3"/>
-    <col min="2309" max="2309" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.7265625" style="3"/>
-    <col min="2312" max="2312" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.453125" style="3" customWidth="1"/>
-    <col min="2315" max="2315" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2560" width="8.7265625" style="3"/>
-    <col min="2561" max="2561" width="47.81640625" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="8.7265625" style="3"/>
-    <col min="2565" max="2565" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.7265625" style="3"/>
-    <col min="2568" max="2568" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.453125" style="3" customWidth="1"/>
-    <col min="2571" max="2571" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2816" width="8.7265625" style="3"/>
-    <col min="2817" max="2817" width="47.81640625" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="8.7265625" style="3"/>
-    <col min="2821" max="2821" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.7265625" style="3"/>
-    <col min="2824" max="2824" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.453125" style="3" customWidth="1"/>
-    <col min="2827" max="2827" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2828" max="3072" width="8.7265625" style="3"/>
-    <col min="3073" max="3073" width="47.81640625" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="19.1796875" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="8.7265625" style="3"/>
-    <col min="3077" max="3077" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.7265625" style="3"/>
-    <col min="3080" max="3080" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.453125" style="3" customWidth="1"/>
-    <col min="3083" max="3083" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3328" width="8.7265625" style="3"/>
-    <col min="3329" max="3329" width="47.81640625" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="19.1796875" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="8.7265625" style="3"/>
-    <col min="3333" max="3333" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.7265625" style="3"/>
-    <col min="3336" max="3336" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.453125" style="3" customWidth="1"/>
-    <col min="3339" max="3339" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3584" width="8.7265625" style="3"/>
-    <col min="3585" max="3585" width="47.81640625" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="19.1796875" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="8.7265625" style="3"/>
-    <col min="3589" max="3589" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.7265625" style="3"/>
-    <col min="3592" max="3592" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.453125" style="3" customWidth="1"/>
-    <col min="3595" max="3595" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3840" width="8.7265625" style="3"/>
-    <col min="3841" max="3841" width="47.81640625" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="19.1796875" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="8.7265625" style="3"/>
-    <col min="3845" max="3845" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.7265625" style="3"/>
-    <col min="3848" max="3848" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.453125" style="3" customWidth="1"/>
-    <col min="3851" max="3851" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3852" max="4096" width="8.7265625" style="3"/>
-    <col min="4097" max="4097" width="47.81640625" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="19.1796875" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="8.7265625" style="3"/>
-    <col min="4101" max="4101" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.7265625" style="3"/>
-    <col min="4104" max="4104" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.453125" style="3" customWidth="1"/>
-    <col min="4107" max="4107" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4352" width="8.7265625" style="3"/>
-    <col min="4353" max="4353" width="47.81640625" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="19.1796875" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="8.7265625" style="3"/>
-    <col min="4357" max="4357" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.7265625" style="3"/>
-    <col min="4360" max="4360" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.453125" style="3" customWidth="1"/>
-    <col min="4363" max="4363" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4608" width="8.7265625" style="3"/>
-    <col min="4609" max="4609" width="47.81640625" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="19.1796875" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="8.7265625" style="3"/>
-    <col min="4613" max="4613" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.7265625" style="3"/>
-    <col min="4616" max="4616" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.453125" style="3" customWidth="1"/>
-    <col min="4619" max="4619" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4864" width="8.7265625" style="3"/>
-    <col min="4865" max="4865" width="47.81640625" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="19.1796875" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="8.7265625" style="3"/>
-    <col min="4869" max="4869" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.7265625" style="3"/>
-    <col min="4872" max="4872" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.453125" style="3" customWidth="1"/>
-    <col min="4875" max="4875" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4876" max="5120" width="8.7265625" style="3"/>
-    <col min="5121" max="5121" width="47.81640625" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="19.1796875" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="8.7265625" style="3"/>
-    <col min="5125" max="5125" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.7265625" style="3"/>
-    <col min="5128" max="5128" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.453125" style="3" customWidth="1"/>
-    <col min="5131" max="5131" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5376" width="8.7265625" style="3"/>
-    <col min="5377" max="5377" width="47.81640625" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="19.1796875" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="8.7265625" style="3"/>
-    <col min="5381" max="5381" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.7265625" style="3"/>
-    <col min="5384" max="5384" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.453125" style="3" customWidth="1"/>
-    <col min="5387" max="5387" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5632" width="8.7265625" style="3"/>
-    <col min="5633" max="5633" width="47.81640625" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="19.1796875" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="8.7265625" style="3"/>
-    <col min="5637" max="5637" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.7265625" style="3"/>
-    <col min="5640" max="5640" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.453125" style="3" customWidth="1"/>
-    <col min="5643" max="5643" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5888" width="8.7265625" style="3"/>
-    <col min="5889" max="5889" width="47.81640625" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="19.1796875" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="8.7265625" style="3"/>
-    <col min="5893" max="5893" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.7265625" style="3"/>
-    <col min="5896" max="5896" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.453125" style="3" customWidth="1"/>
-    <col min="5899" max="5899" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5900" max="6144" width="8.7265625" style="3"/>
-    <col min="6145" max="6145" width="47.81640625" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="19.1796875" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="8.7265625" style="3"/>
-    <col min="6149" max="6149" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.7265625" style="3"/>
-    <col min="6152" max="6152" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.453125" style="3" customWidth="1"/>
-    <col min="6155" max="6155" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6400" width="8.7265625" style="3"/>
-    <col min="6401" max="6401" width="47.81640625" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="19.1796875" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="8.7265625" style="3"/>
-    <col min="6405" max="6405" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.7265625" style="3"/>
-    <col min="6408" max="6408" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.453125" style="3" customWidth="1"/>
-    <col min="6411" max="6411" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6656" width="8.7265625" style="3"/>
-    <col min="6657" max="6657" width="47.81640625" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="19.1796875" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="8.7265625" style="3"/>
-    <col min="6661" max="6661" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.7265625" style="3"/>
-    <col min="6664" max="6664" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.453125" style="3" customWidth="1"/>
-    <col min="6667" max="6667" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6912" width="8.7265625" style="3"/>
-    <col min="6913" max="6913" width="47.81640625" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="19.1796875" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="8.7265625" style="3"/>
-    <col min="6917" max="6917" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.7265625" style="3"/>
-    <col min="6920" max="6920" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.453125" style="3" customWidth="1"/>
-    <col min="6923" max="6923" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6924" max="7168" width="8.7265625" style="3"/>
-    <col min="7169" max="7169" width="47.81640625" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="19.1796875" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="8.7265625" style="3"/>
-    <col min="7173" max="7173" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.7265625" style="3"/>
-    <col min="7176" max="7176" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.453125" style="3" customWidth="1"/>
-    <col min="7179" max="7179" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7424" width="8.7265625" style="3"/>
-    <col min="7425" max="7425" width="47.81640625" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="19.1796875" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="8.7265625" style="3"/>
-    <col min="7429" max="7429" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.7265625" style="3"/>
-    <col min="7432" max="7432" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.453125" style="3" customWidth="1"/>
-    <col min="7435" max="7435" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7680" width="8.7265625" style="3"/>
-    <col min="7681" max="7681" width="47.81640625" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="19.1796875" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="8.7265625" style="3"/>
-    <col min="7685" max="7685" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.7265625" style="3"/>
-    <col min="7688" max="7688" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.453125" style="3" customWidth="1"/>
-    <col min="7691" max="7691" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7936" width="8.7265625" style="3"/>
-    <col min="7937" max="7937" width="47.81640625" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="19.1796875" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="8.7265625" style="3"/>
-    <col min="7941" max="7941" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.7265625" style="3"/>
-    <col min="7944" max="7944" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.453125" style="3" customWidth="1"/>
-    <col min="7947" max="7947" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7948" max="8192" width="8.7265625" style="3"/>
-    <col min="8193" max="8193" width="47.81640625" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="19.1796875" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="8.7265625" style="3"/>
-    <col min="8197" max="8197" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.7265625" style="3"/>
-    <col min="8200" max="8200" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.453125" style="3" customWidth="1"/>
-    <col min="8203" max="8203" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8448" width="8.7265625" style="3"/>
-    <col min="8449" max="8449" width="47.81640625" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="19.1796875" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="8.7265625" style="3"/>
-    <col min="8453" max="8453" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.7265625" style="3"/>
-    <col min="8456" max="8456" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.453125" style="3" customWidth="1"/>
-    <col min="8459" max="8459" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8704" width="8.7265625" style="3"/>
-    <col min="8705" max="8705" width="47.81640625" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="19.1796875" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="8.7265625" style="3"/>
-    <col min="8709" max="8709" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.7265625" style="3"/>
-    <col min="8712" max="8712" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.453125" style="3" customWidth="1"/>
-    <col min="8715" max="8715" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8960" width="8.7265625" style="3"/>
-    <col min="8961" max="8961" width="47.81640625" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="19.1796875" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="8.7265625" style="3"/>
-    <col min="8965" max="8965" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.7265625" style="3"/>
-    <col min="8968" max="8968" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.453125" style="3" customWidth="1"/>
-    <col min="8971" max="8971" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8972" max="9216" width="8.7265625" style="3"/>
-    <col min="9217" max="9217" width="47.81640625" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="19.1796875" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="8.7265625" style="3"/>
-    <col min="9221" max="9221" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.7265625" style="3"/>
-    <col min="9224" max="9224" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.453125" style="3" customWidth="1"/>
-    <col min="9227" max="9227" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9472" width="8.7265625" style="3"/>
-    <col min="9473" max="9473" width="47.81640625" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="19.1796875" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="8.7265625" style="3"/>
-    <col min="9477" max="9477" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.7265625" style="3"/>
-    <col min="9480" max="9480" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.453125" style="3" customWidth="1"/>
-    <col min="9483" max="9483" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9728" width="8.7265625" style="3"/>
-    <col min="9729" max="9729" width="47.81640625" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="19.1796875" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="8.7265625" style="3"/>
-    <col min="9733" max="9733" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.7265625" style="3"/>
-    <col min="9736" max="9736" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.453125" style="3" customWidth="1"/>
-    <col min="9739" max="9739" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9984" width="8.7265625" style="3"/>
-    <col min="9985" max="9985" width="47.81640625" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="19.1796875" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="8.7265625" style="3"/>
-    <col min="9989" max="9989" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.7265625" style="3"/>
-    <col min="9992" max="9992" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.453125" style="3" customWidth="1"/>
-    <col min="9995" max="9995" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9996" max="10240" width="8.7265625" style="3"/>
-    <col min="10241" max="10241" width="47.81640625" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="19.1796875" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="8.7265625" style="3"/>
-    <col min="10245" max="10245" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.7265625" style="3"/>
-    <col min="10248" max="10248" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.453125" style="3" customWidth="1"/>
-    <col min="10251" max="10251" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10496" width="8.7265625" style="3"/>
-    <col min="10497" max="10497" width="47.81640625" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="19.1796875" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="8.7265625" style="3"/>
-    <col min="10501" max="10501" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.7265625" style="3"/>
-    <col min="10504" max="10504" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.453125" style="3" customWidth="1"/>
-    <col min="10507" max="10507" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10752" width="8.7265625" style="3"/>
-    <col min="10753" max="10753" width="47.81640625" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="19.1796875" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="8.7265625" style="3"/>
-    <col min="10757" max="10757" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.7265625" style="3"/>
-    <col min="10760" max="10760" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.453125" style="3" customWidth="1"/>
-    <col min="10763" max="10763" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10764" max="11008" width="8.7265625" style="3"/>
-    <col min="11009" max="11009" width="47.81640625" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="19.1796875" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="8.7265625" style="3"/>
-    <col min="11013" max="11013" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.7265625" style="3"/>
-    <col min="11016" max="11016" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.453125" style="3" customWidth="1"/>
-    <col min="11019" max="11019" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11264" width="8.7265625" style="3"/>
-    <col min="11265" max="11265" width="47.81640625" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="19.1796875" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="8.7265625" style="3"/>
-    <col min="11269" max="11269" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.7265625" style="3"/>
-    <col min="11272" max="11272" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.453125" style="3" customWidth="1"/>
-    <col min="11275" max="11275" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11520" width="8.7265625" style="3"/>
-    <col min="11521" max="11521" width="47.81640625" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="19.1796875" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="8.7265625" style="3"/>
-    <col min="11525" max="11525" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.7265625" style="3"/>
-    <col min="11528" max="11528" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.453125" style="3" customWidth="1"/>
-    <col min="11531" max="11531" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11776" width="8.7265625" style="3"/>
-    <col min="11777" max="11777" width="47.81640625" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="19.1796875" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="8.7265625" style="3"/>
-    <col min="11781" max="11781" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.7265625" style="3"/>
-    <col min="11784" max="11784" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.453125" style="3" customWidth="1"/>
-    <col min="11787" max="11787" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11788" max="12032" width="8.7265625" style="3"/>
-    <col min="12033" max="12033" width="47.81640625" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="19.1796875" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="8.7265625" style="3"/>
-    <col min="12037" max="12037" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.7265625" style="3"/>
-    <col min="12040" max="12040" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.453125" style="3" customWidth="1"/>
-    <col min="12043" max="12043" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12288" width="8.7265625" style="3"/>
-    <col min="12289" max="12289" width="47.81640625" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="19.1796875" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="8.7265625" style="3"/>
-    <col min="12293" max="12293" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.7265625" style="3"/>
-    <col min="12296" max="12296" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.453125" style="3" customWidth="1"/>
-    <col min="12299" max="12299" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12544" width="8.7265625" style="3"/>
-    <col min="12545" max="12545" width="47.81640625" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="19.1796875" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="8.7265625" style="3"/>
-    <col min="12549" max="12549" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.7265625" style="3"/>
-    <col min="12552" max="12552" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.453125" style="3" customWidth="1"/>
-    <col min="12555" max="12555" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12800" width="8.7265625" style="3"/>
-    <col min="12801" max="12801" width="47.81640625" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="19.1796875" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="8.7265625" style="3"/>
-    <col min="12805" max="12805" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.7265625" style="3"/>
-    <col min="12808" max="12808" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.453125" style="3" customWidth="1"/>
-    <col min="12811" max="12811" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12812" max="13056" width="8.7265625" style="3"/>
-    <col min="13057" max="13057" width="47.81640625" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="19.1796875" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="8.7265625" style="3"/>
-    <col min="13061" max="13061" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.7265625" style="3"/>
-    <col min="13064" max="13064" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.453125" style="3" customWidth="1"/>
-    <col min="13067" max="13067" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13312" width="8.7265625" style="3"/>
-    <col min="13313" max="13313" width="47.81640625" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="19.1796875" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="8.7265625" style="3"/>
-    <col min="13317" max="13317" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.7265625" style="3"/>
-    <col min="13320" max="13320" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.453125" style="3" customWidth="1"/>
-    <col min="13323" max="13323" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13568" width="8.7265625" style="3"/>
-    <col min="13569" max="13569" width="47.81640625" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="19.1796875" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="8.7265625" style="3"/>
-    <col min="13573" max="13573" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.7265625" style="3"/>
-    <col min="13576" max="13576" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.453125" style="3" customWidth="1"/>
-    <col min="13579" max="13579" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13824" width="8.7265625" style="3"/>
-    <col min="13825" max="13825" width="47.81640625" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="19.1796875" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="8.7265625" style="3"/>
-    <col min="13829" max="13829" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.7265625" style="3"/>
-    <col min="13832" max="13832" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.453125" style="3" customWidth="1"/>
-    <col min="13835" max="13835" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13836" max="14080" width="8.7265625" style="3"/>
-    <col min="14081" max="14081" width="47.81640625" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="19.1796875" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="8.7265625" style="3"/>
-    <col min="14085" max="14085" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.7265625" style="3"/>
-    <col min="14088" max="14088" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.453125" style="3" customWidth="1"/>
-    <col min="14091" max="14091" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14336" width="8.7265625" style="3"/>
-    <col min="14337" max="14337" width="47.81640625" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="19.1796875" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="8.7265625" style="3"/>
-    <col min="14341" max="14341" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.7265625" style="3"/>
-    <col min="14344" max="14344" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.453125" style="3" customWidth="1"/>
-    <col min="14347" max="14347" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14592" width="8.7265625" style="3"/>
-    <col min="14593" max="14593" width="47.81640625" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="19.1796875" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="8.7265625" style="3"/>
-    <col min="14597" max="14597" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.7265625" style="3"/>
-    <col min="14600" max="14600" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.453125" style="3" customWidth="1"/>
-    <col min="14603" max="14603" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14848" width="8.7265625" style="3"/>
-    <col min="14849" max="14849" width="47.81640625" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="19.1796875" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="8.7265625" style="3"/>
-    <col min="14853" max="14853" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.7265625" style="3"/>
-    <col min="14856" max="14856" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.453125" style="3" customWidth="1"/>
-    <col min="14859" max="14859" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14860" max="15104" width="8.7265625" style="3"/>
-    <col min="15105" max="15105" width="47.81640625" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="19.1796875" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="8.7265625" style="3"/>
-    <col min="15109" max="15109" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.7265625" style="3"/>
-    <col min="15112" max="15112" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.453125" style="3" customWidth="1"/>
-    <col min="15115" max="15115" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15360" width="8.7265625" style="3"/>
-    <col min="15361" max="15361" width="47.81640625" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="19.1796875" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="8.7265625" style="3"/>
-    <col min="15365" max="15365" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.7265625" style="3"/>
-    <col min="15368" max="15368" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.453125" style="3" customWidth="1"/>
-    <col min="15371" max="15371" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15616" width="8.7265625" style="3"/>
-    <col min="15617" max="15617" width="47.81640625" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="19.1796875" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="8.7265625" style="3"/>
-    <col min="15621" max="15621" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.7265625" style="3"/>
-    <col min="15624" max="15624" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.453125" style="3" customWidth="1"/>
-    <col min="15627" max="15627" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15872" width="8.7265625" style="3"/>
-    <col min="15873" max="15873" width="47.81640625" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="19.1796875" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="8.7265625" style="3"/>
-    <col min="15877" max="15877" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.7265625" style="3"/>
-    <col min="15880" max="15880" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.453125" style="3" customWidth="1"/>
-    <col min="15883" max="15883" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15884" max="16128" width="8.7265625" style="3"/>
-    <col min="16129" max="16129" width="47.81640625" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="19.1796875" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="8.7265625" style="3"/>
-    <col min="16133" max="16133" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="6.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.7265625" style="3"/>
-    <col min="16136" max="16136" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.453125" style="3" customWidth="1"/>
-    <col min="16139" max="16139" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="256" width="8.7109375" style="3"/>
+    <col min="257" max="257" width="47.85546875" style="3" customWidth="1"/>
+    <col min="258" max="258" width="19.140625" style="3" customWidth="1"/>
+    <col min="259" max="259" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.7109375" style="3"/>
+    <col min="261" max="261" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.7109375" style="3"/>
+    <col min="264" max="264" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.42578125" style="3" customWidth="1"/>
+    <col min="267" max="267" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="268" max="512" width="8.7109375" style="3"/>
+    <col min="513" max="513" width="47.85546875" style="3" customWidth="1"/>
+    <col min="514" max="514" width="19.140625" style="3" customWidth="1"/>
+    <col min="515" max="515" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="8.7109375" style="3"/>
+    <col min="517" max="517" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.7109375" style="3"/>
+    <col min="520" max="520" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.42578125" style="3" customWidth="1"/>
+    <col min="523" max="523" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="524" max="768" width="8.7109375" style="3"/>
+    <col min="769" max="769" width="47.85546875" style="3" customWidth="1"/>
+    <col min="770" max="770" width="19.140625" style="3" customWidth="1"/>
+    <col min="771" max="771" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="8.7109375" style="3"/>
+    <col min="773" max="773" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.7109375" style="3"/>
+    <col min="776" max="776" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.42578125" style="3" customWidth="1"/>
+    <col min="779" max="779" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="780" max="1024" width="8.7109375" style="3"/>
+    <col min="1025" max="1025" width="47.85546875" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="19.140625" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="8.7109375" style="3"/>
+    <col min="1029" max="1029" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.7109375" style="3"/>
+    <col min="1032" max="1032" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1035" max="1035" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1280" width="8.7109375" style="3"/>
+    <col min="1281" max="1281" width="47.85546875" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="19.140625" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="8.7109375" style="3"/>
+    <col min="1285" max="1285" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.7109375" style="3"/>
+    <col min="1288" max="1288" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1291" max="1291" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1536" width="8.7109375" style="3"/>
+    <col min="1537" max="1537" width="47.85546875" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="19.140625" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="8.7109375" style="3"/>
+    <col min="1541" max="1541" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.7109375" style="3"/>
+    <col min="1544" max="1544" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1547" max="1547" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1792" width="8.7109375" style="3"/>
+    <col min="1793" max="1793" width="47.85546875" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="19.140625" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="8.7109375" style="3"/>
+    <col min="1797" max="1797" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.7109375" style="3"/>
+    <col min="1800" max="1800" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1803" max="1803" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1804" max="2048" width="8.7109375" style="3"/>
+    <col min="2049" max="2049" width="47.85546875" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="19.140625" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="8.7109375" style="3"/>
+    <col min="2053" max="2053" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.7109375" style="3"/>
+    <col min="2056" max="2056" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2059" max="2059" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2304" width="8.7109375" style="3"/>
+    <col min="2305" max="2305" width="47.85546875" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="19.140625" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="8.7109375" style="3"/>
+    <col min="2309" max="2309" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.7109375" style="3"/>
+    <col min="2312" max="2312" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2315" max="2315" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2560" width="8.7109375" style="3"/>
+    <col min="2561" max="2561" width="47.85546875" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="19.140625" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="8.7109375" style="3"/>
+    <col min="2565" max="2565" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.7109375" style="3"/>
+    <col min="2568" max="2568" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2571" max="2571" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2816" width="8.7109375" style="3"/>
+    <col min="2817" max="2817" width="47.85546875" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="19.140625" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="8.7109375" style="3"/>
+    <col min="2821" max="2821" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.7109375" style="3"/>
+    <col min="2824" max="2824" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2827" max="2827" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2828" max="3072" width="8.7109375" style="3"/>
+    <col min="3073" max="3073" width="47.85546875" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="19.140625" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="8.7109375" style="3"/>
+    <col min="3077" max="3077" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.7109375" style="3"/>
+    <col min="3080" max="3080" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3083" max="3083" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3328" width="8.7109375" style="3"/>
+    <col min="3329" max="3329" width="47.85546875" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="19.140625" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="8.7109375" style="3"/>
+    <col min="3333" max="3333" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.7109375" style="3"/>
+    <col min="3336" max="3336" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3339" max="3339" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3584" width="8.7109375" style="3"/>
+    <col min="3585" max="3585" width="47.85546875" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="19.140625" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="8.7109375" style="3"/>
+    <col min="3589" max="3589" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.7109375" style="3"/>
+    <col min="3592" max="3592" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3595" max="3595" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3840" width="8.7109375" style="3"/>
+    <col min="3841" max="3841" width="47.85546875" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="19.140625" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="8.7109375" style="3"/>
+    <col min="3845" max="3845" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.7109375" style="3"/>
+    <col min="3848" max="3848" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.42578125" style="3" customWidth="1"/>
+    <col min="3851" max="3851" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3852" max="4096" width="8.7109375" style="3"/>
+    <col min="4097" max="4097" width="47.85546875" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="19.140625" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="8.7109375" style="3"/>
+    <col min="4101" max="4101" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.7109375" style="3"/>
+    <col min="4104" max="4104" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4107" max="4107" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4352" width="8.7109375" style="3"/>
+    <col min="4353" max="4353" width="47.85546875" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="19.140625" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="8.7109375" style="3"/>
+    <col min="4357" max="4357" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.7109375" style="3"/>
+    <col min="4360" max="4360" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4363" max="4363" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4608" width="8.7109375" style="3"/>
+    <col min="4609" max="4609" width="47.85546875" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="19.140625" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="8.7109375" style="3"/>
+    <col min="4613" max="4613" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.7109375" style="3"/>
+    <col min="4616" max="4616" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4619" max="4619" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4864" width="8.7109375" style="3"/>
+    <col min="4865" max="4865" width="47.85546875" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="19.140625" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="8.7109375" style="3"/>
+    <col min="4869" max="4869" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.7109375" style="3"/>
+    <col min="4872" max="4872" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4875" max="4875" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4876" max="5120" width="8.7109375" style="3"/>
+    <col min="5121" max="5121" width="47.85546875" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="19.140625" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="8.7109375" style="3"/>
+    <col min="5125" max="5125" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.7109375" style="3"/>
+    <col min="5128" max="5128" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5131" max="5131" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5376" width="8.7109375" style="3"/>
+    <col min="5377" max="5377" width="47.85546875" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="19.140625" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="8.7109375" style="3"/>
+    <col min="5381" max="5381" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.7109375" style="3"/>
+    <col min="5384" max="5384" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5387" max="5387" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5632" width="8.7109375" style="3"/>
+    <col min="5633" max="5633" width="47.85546875" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="19.140625" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="8.7109375" style="3"/>
+    <col min="5637" max="5637" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.7109375" style="3"/>
+    <col min="5640" max="5640" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5643" max="5643" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5888" width="8.7109375" style="3"/>
+    <col min="5889" max="5889" width="47.85546875" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="19.140625" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="8.7109375" style="3"/>
+    <col min="5893" max="5893" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.7109375" style="3"/>
+    <col min="5896" max="5896" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5899" max="5899" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5900" max="6144" width="8.7109375" style="3"/>
+    <col min="6145" max="6145" width="47.85546875" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="19.140625" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="8.7109375" style="3"/>
+    <col min="6149" max="6149" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.7109375" style="3"/>
+    <col min="6152" max="6152" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6155" max="6155" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6400" width="8.7109375" style="3"/>
+    <col min="6401" max="6401" width="47.85546875" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="19.140625" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="8.7109375" style="3"/>
+    <col min="6405" max="6405" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.7109375" style="3"/>
+    <col min="6408" max="6408" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6411" max="6411" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6656" width="8.7109375" style="3"/>
+    <col min="6657" max="6657" width="47.85546875" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="19.140625" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="8.7109375" style="3"/>
+    <col min="6661" max="6661" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.7109375" style="3"/>
+    <col min="6664" max="6664" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6667" max="6667" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6912" width="8.7109375" style="3"/>
+    <col min="6913" max="6913" width="47.85546875" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="19.140625" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="8.7109375" style="3"/>
+    <col min="6917" max="6917" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.7109375" style="3"/>
+    <col min="6920" max="6920" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6923" max="6923" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6924" max="7168" width="8.7109375" style="3"/>
+    <col min="7169" max="7169" width="47.85546875" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="19.140625" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="8.7109375" style="3"/>
+    <col min="7173" max="7173" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.7109375" style="3"/>
+    <col min="7176" max="7176" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7179" max="7179" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7424" width="8.7109375" style="3"/>
+    <col min="7425" max="7425" width="47.85546875" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="19.140625" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="8.7109375" style="3"/>
+    <col min="7429" max="7429" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.7109375" style="3"/>
+    <col min="7432" max="7432" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7435" max="7435" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7680" width="8.7109375" style="3"/>
+    <col min="7681" max="7681" width="47.85546875" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="19.140625" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="8.7109375" style="3"/>
+    <col min="7685" max="7685" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.7109375" style="3"/>
+    <col min="7688" max="7688" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7691" max="7691" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7936" width="8.7109375" style="3"/>
+    <col min="7937" max="7937" width="47.85546875" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="19.140625" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="8.7109375" style="3"/>
+    <col min="7941" max="7941" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.7109375" style="3"/>
+    <col min="7944" max="7944" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7947" max="7947" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7948" max="8192" width="8.7109375" style="3"/>
+    <col min="8193" max="8193" width="47.85546875" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="19.140625" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="8.7109375" style="3"/>
+    <col min="8197" max="8197" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.7109375" style="3"/>
+    <col min="8200" max="8200" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8203" max="8203" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8448" width="8.7109375" style="3"/>
+    <col min="8449" max="8449" width="47.85546875" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="19.140625" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="8.7109375" style="3"/>
+    <col min="8453" max="8453" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.7109375" style="3"/>
+    <col min="8456" max="8456" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8459" max="8459" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8704" width="8.7109375" style="3"/>
+    <col min="8705" max="8705" width="47.85546875" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="19.140625" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="8.7109375" style="3"/>
+    <col min="8709" max="8709" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.7109375" style="3"/>
+    <col min="8712" max="8712" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8715" max="8715" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8960" width="8.7109375" style="3"/>
+    <col min="8961" max="8961" width="47.85546875" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="19.140625" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="8.7109375" style="3"/>
+    <col min="8965" max="8965" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.7109375" style="3"/>
+    <col min="8968" max="8968" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8971" max="8971" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8972" max="9216" width="8.7109375" style="3"/>
+    <col min="9217" max="9217" width="47.85546875" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="19.140625" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="8.7109375" style="3"/>
+    <col min="9221" max="9221" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.7109375" style="3"/>
+    <col min="9224" max="9224" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9227" max="9227" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9472" width="8.7109375" style="3"/>
+    <col min="9473" max="9473" width="47.85546875" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="19.140625" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="8.7109375" style="3"/>
+    <col min="9477" max="9477" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.7109375" style="3"/>
+    <col min="9480" max="9480" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9483" max="9483" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9728" width="8.7109375" style="3"/>
+    <col min="9729" max="9729" width="47.85546875" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="19.140625" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="8.7109375" style="3"/>
+    <col min="9733" max="9733" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.7109375" style="3"/>
+    <col min="9736" max="9736" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9739" max="9739" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9984" width="8.7109375" style="3"/>
+    <col min="9985" max="9985" width="47.85546875" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="19.140625" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="8.7109375" style="3"/>
+    <col min="9989" max="9989" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.7109375" style="3"/>
+    <col min="9992" max="9992" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.42578125" style="3" customWidth="1"/>
+    <col min="9995" max="9995" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9996" max="10240" width="8.7109375" style="3"/>
+    <col min="10241" max="10241" width="47.85546875" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="19.140625" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="8.7109375" style="3"/>
+    <col min="10245" max="10245" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.7109375" style="3"/>
+    <col min="10248" max="10248" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10251" max="10251" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10496" width="8.7109375" style="3"/>
+    <col min="10497" max="10497" width="47.85546875" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="19.140625" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="8.7109375" style="3"/>
+    <col min="10501" max="10501" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.7109375" style="3"/>
+    <col min="10504" max="10504" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10507" max="10507" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10752" width="8.7109375" style="3"/>
+    <col min="10753" max="10753" width="47.85546875" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="19.140625" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="8.7109375" style="3"/>
+    <col min="10757" max="10757" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.7109375" style="3"/>
+    <col min="10760" max="10760" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.42578125" style="3" customWidth="1"/>
+    <col min="10763" max="10763" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10764" max="11008" width="8.7109375" style="3"/>
+    <col min="11009" max="11009" width="47.85546875" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="19.140625" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="8.7109375" style="3"/>
+    <col min="11013" max="11013" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.7109375" style="3"/>
+    <col min="11016" max="11016" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11019" max="11019" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11264" width="8.7109375" style="3"/>
+    <col min="11265" max="11265" width="47.85546875" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="19.140625" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="8.7109375" style="3"/>
+    <col min="11269" max="11269" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.7109375" style="3"/>
+    <col min="11272" max="11272" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11275" max="11275" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11520" width="8.7109375" style="3"/>
+    <col min="11521" max="11521" width="47.85546875" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="19.140625" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="8.7109375" style="3"/>
+    <col min="11525" max="11525" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.7109375" style="3"/>
+    <col min="11528" max="11528" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11531" max="11531" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11776" width="8.7109375" style="3"/>
+    <col min="11777" max="11777" width="47.85546875" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="19.140625" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="8.7109375" style="3"/>
+    <col min="11781" max="11781" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.7109375" style="3"/>
+    <col min="11784" max="11784" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.42578125" style="3" customWidth="1"/>
+    <col min="11787" max="11787" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11788" max="12032" width="8.7109375" style="3"/>
+    <col min="12033" max="12033" width="47.85546875" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="19.140625" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="8.7109375" style="3"/>
+    <col min="12037" max="12037" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.7109375" style="3"/>
+    <col min="12040" max="12040" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12043" max="12043" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12288" width="8.7109375" style="3"/>
+    <col min="12289" max="12289" width="47.85546875" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="19.140625" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="8.7109375" style="3"/>
+    <col min="12293" max="12293" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.7109375" style="3"/>
+    <col min="12296" max="12296" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12299" max="12299" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12544" width="8.7109375" style="3"/>
+    <col min="12545" max="12545" width="47.85546875" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="19.140625" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="8.7109375" style="3"/>
+    <col min="12549" max="12549" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.7109375" style="3"/>
+    <col min="12552" max="12552" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12555" max="12555" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12800" width="8.7109375" style="3"/>
+    <col min="12801" max="12801" width="47.85546875" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="19.140625" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="8.7109375" style="3"/>
+    <col min="12805" max="12805" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.7109375" style="3"/>
+    <col min="12808" max="12808" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12811" max="12811" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12812" max="13056" width="8.7109375" style="3"/>
+    <col min="13057" max="13057" width="47.85546875" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="19.140625" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="8.7109375" style="3"/>
+    <col min="13061" max="13061" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.7109375" style="3"/>
+    <col min="13064" max="13064" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.42578125" style="3" customWidth="1"/>
+    <col min="13067" max="13067" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13312" width="8.7109375" style="3"/>
+    <col min="13313" max="13313" width="47.85546875" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="19.140625" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="8.7109375" style="3"/>
+    <col min="13317" max="13317" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.7109375" style="3"/>
+    <col min="13320" max="13320" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.42578125" style="3" customWidth="1"/>
+    <col min="13323" max="13323" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13568" width="8.7109375" style="3"/>
+    <col min="13569" max="13569" width="47.85546875" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="19.140625" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="8.7109375" style="3"/>
+    <col min="13573" max="13573" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.7109375" style="3"/>
+    <col min="13576" max="13576" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.42578125" style="3" customWidth="1"/>
+    <col min="13579" max="13579" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13824" width="8.7109375" style="3"/>
+    <col min="13825" max="13825" width="47.85546875" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="19.140625" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="8.7109375" style="3"/>
+    <col min="13829" max="13829" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.7109375" style="3"/>
+    <col min="13832" max="13832" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.42578125" style="3" customWidth="1"/>
+    <col min="13835" max="13835" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13836" max="14080" width="8.7109375" style="3"/>
+    <col min="14081" max="14081" width="47.85546875" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="19.140625" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="8.7109375" style="3"/>
+    <col min="14085" max="14085" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.7109375" style="3"/>
+    <col min="14088" max="14088" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14091" max="14091" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14336" width="8.7109375" style="3"/>
+    <col min="14337" max="14337" width="47.85546875" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="19.140625" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="8.7109375" style="3"/>
+    <col min="14341" max="14341" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.7109375" style="3"/>
+    <col min="14344" max="14344" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14347" max="14347" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14592" width="8.7109375" style="3"/>
+    <col min="14593" max="14593" width="47.85546875" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="19.140625" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="8.7109375" style="3"/>
+    <col min="14597" max="14597" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.7109375" style="3"/>
+    <col min="14600" max="14600" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14603" max="14603" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14848" width="8.7109375" style="3"/>
+    <col min="14849" max="14849" width="47.85546875" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="19.140625" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="8.7109375" style="3"/>
+    <col min="14853" max="14853" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.7109375" style="3"/>
+    <col min="14856" max="14856" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14859" max="14859" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14860" max="15104" width="8.7109375" style="3"/>
+    <col min="15105" max="15105" width="47.85546875" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="19.140625" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="8.7109375" style="3"/>
+    <col min="15109" max="15109" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.7109375" style="3"/>
+    <col min="15112" max="15112" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.42578125" style="3" customWidth="1"/>
+    <col min="15115" max="15115" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15360" width="8.7109375" style="3"/>
+    <col min="15361" max="15361" width="47.85546875" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="19.140625" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="8.7109375" style="3"/>
+    <col min="15365" max="15365" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.7109375" style="3"/>
+    <col min="15368" max="15368" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.42578125" style="3" customWidth="1"/>
+    <col min="15371" max="15371" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15616" width="8.7109375" style="3"/>
+    <col min="15617" max="15617" width="47.85546875" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="19.140625" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="8.7109375" style="3"/>
+    <col min="15621" max="15621" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.7109375" style="3"/>
+    <col min="15624" max="15624" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.42578125" style="3" customWidth="1"/>
+    <col min="15627" max="15627" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15872" width="8.7109375" style="3"/>
+    <col min="15873" max="15873" width="47.85546875" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="19.140625" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="8.7109375" style="3"/>
+    <col min="15877" max="15877" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.7109375" style="3"/>
+    <col min="15880" max="15880" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.42578125" style="3" customWidth="1"/>
+    <col min="15883" max="15883" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15884" max="16128" width="8.7109375" style="3"/>
+    <col min="16129" max="16129" width="47.85546875" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="19.140625" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="8.7109375" style="3"/>
+    <col min="16133" max="16133" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.7109375" style="3"/>
+    <col min="16136" max="16136" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.42578125" style="3" customWidth="1"/>
+    <col min="16139" max="16139" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1426,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,11 +1434,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1451,7 +1450,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1465,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -1855,7 +1854,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
@@ -1890,7 +1889,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1903,7 +1902,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6"/>
@@ -1915,7 +1914,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1928,7 +1927,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="6"/>
@@ -1940,7 +1939,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="6"/>
@@ -1952,7 +1951,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="6"/>
@@ -1962,7 +1961,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
@@ -1972,7 +1971,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
@@ -1982,7 +1981,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
@@ -1992,7 +1991,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="6"/>
@@ -2002,7 +2001,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="6"/>
@@ -2012,7 +2011,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="6"/>
@@ -2022,7 +2021,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
@@ -2032,7 +2031,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2042,7 +2041,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
@@ -2052,7 +2051,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="6"/>
@@ -2062,7 +2061,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
@@ -2072,7 +2071,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="6"/>
@@ -2082,7 +2081,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
@@ -2092,7 +2091,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
@@ -2102,7 +2101,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
@@ -2112,7 +2111,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
@@ -2122,7 +2121,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
@@ -2132,7 +2131,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
@@ -2142,7 +2141,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
@@ -2152,7 +2151,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
@@ -2162,7 +2161,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
@@ -2172,7 +2171,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
@@ -2182,7 +2181,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
@@ -2192,7 +2191,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
@@ -2202,7 +2201,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
@@ -2212,7 +2211,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
@@ -2222,7 +2221,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
@@ -2232,7 +2231,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
@@ -2242,7 +2241,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>

--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538343\Documents\691\44691-Module1-Badami4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538306\Documents\Annie_Documents\691\44691-Module1-Badami4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512F4FEA-DCF2-4900-BA99-CD89FCA1E416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89069AE4-BCF1-4BB4-8BBC-0C803D56BC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,11 +287,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,18 +1380,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1410,12 +1410,12 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
@@ -1642,10 +1642,10 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>44162</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="7"/>
